--- a/test_data/test1_login_test_data.xlsx
+++ b/test_data/test1_login_test_data.xlsx
@@ -38,15 +38,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UserPasswd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'json':{'username':'','password':'a1234567890'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code':'10002','status':'error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code':'10002','status':'error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDataDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'json':{'username':'eeeee','password':'a1234567890'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code':'10203','status':'error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username is error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password is error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'json':{'username':'nn.chen@yuneec.com','password':'7890'}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{'code':'10000','status':'success'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserPasswd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExceptResult</t>
+    <t>username is null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username : email format 
+password :字母数字 下划线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,53 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'code':'10002','status':'error'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'json':{'username':'nn.chen@yuneec.com','password':'a1234567890'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'json':{'username':'','password':'a1234567890'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code':'10002','status':'error'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDataDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username is null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'json':{'username':'eeeee','password':'a1234567890'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code':'10203','status':'error'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username is error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password is error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'json':{'username':'nn.chen@yuneec.com','password':'7890'}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-username : email format 
-password :字母数字 下划线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +458,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,57 +472,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -691,17 +690,17 @@
   <dimension ref="A6:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
